--- a/Modelagem DDD.xlsx
+++ b/Modelagem DDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igomesol\Documents\Projetos\cipa\cipa-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igomesol\Documents\Projetos\cipa-ddd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3943,7 +3943,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I21" sqref="D10:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Modelagem DDD.xlsx
+++ b/Modelagem DDD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Eleição</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Estabelecimentos</t>
+  </si>
+  <si>
+    <t>Template Email</t>
   </si>
 </sst>
 </file>
@@ -769,7 +772,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -779,7 +782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6880859" y="2045630"/>
-          <a:ext cx="4602481" cy="1794850"/>
+          <a:ext cx="4831081" cy="1779610"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2984,16 +2987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>299756</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>272020</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>335381</xdr:rowOff>
+      <xdr:rowOff>341465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>321623</xdr:colOff>
+      <xdr:colOff>390571</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>31545</xdr:rowOff>
+      <xdr:rowOff>32777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3002,8 +3005,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2410496" y="1981301"/>
-          <a:ext cx="2132607" cy="1273504"/>
+          <a:off x="272020" y="1987385"/>
+          <a:ext cx="4340031" cy="1268652"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3092,6 +3095,110 @@
             <a:gd name="connsiteY4" fmla="*/ 1142900 h 1273504"/>
             <a:gd name="connsiteX5" fmla="*/ 279365 w 2132607"/>
             <a:gd name="connsiteY5" fmla="*/ 1203860 h 1273504"/>
+            <a:gd name="connsiteX0" fmla="*/ 197674 w 2050916"/>
+            <a:gd name="connsiteY0" fmla="*/ 1203542 h 1273678"/>
+            <a:gd name="connsiteX1" fmla="*/ 30034 w 2050916"/>
+            <a:gd name="connsiteY1" fmla="*/ 647282 h 1273678"/>
+            <a:gd name="connsiteX2" fmla="*/ 258634 w 2050916"/>
+            <a:gd name="connsiteY2" fmla="*/ 136742 h 1273678"/>
+            <a:gd name="connsiteX3" fmla="*/ 1675954 w 2050916"/>
+            <a:gd name="connsiteY3" fmla="*/ 91022 h 1273678"/>
+            <a:gd name="connsiteX4" fmla="*/ 1775014 w 2050916"/>
+            <a:gd name="connsiteY4" fmla="*/ 1142582 h 1273678"/>
+            <a:gd name="connsiteX5" fmla="*/ 197674 w 2050916"/>
+            <a:gd name="connsiteY5" fmla="*/ 1203542 h 1273678"/>
+            <a:gd name="connsiteX0" fmla="*/ 49699 w 3122510"/>
+            <a:gd name="connsiteY0" fmla="*/ 1234022 h 1292671"/>
+            <a:gd name="connsiteX1" fmla="*/ 1032679 w 3122510"/>
+            <a:gd name="connsiteY1" fmla="*/ 647282 h 1292671"/>
+            <a:gd name="connsiteX2" fmla="*/ 1261279 w 3122510"/>
+            <a:gd name="connsiteY2" fmla="*/ 136742 h 1292671"/>
+            <a:gd name="connsiteX3" fmla="*/ 2678599 w 3122510"/>
+            <a:gd name="connsiteY3" fmla="*/ 91022 h 1292671"/>
+            <a:gd name="connsiteX4" fmla="*/ 2777659 w 3122510"/>
+            <a:gd name="connsiteY4" fmla="*/ 1142582 h 1292671"/>
+            <a:gd name="connsiteX5" fmla="*/ 49699 w 3122510"/>
+            <a:gd name="connsiteY5" fmla="*/ 1234022 h 1292671"/>
+            <a:gd name="connsiteX0" fmla="*/ 68336 w 3141147"/>
+            <a:gd name="connsiteY0" fmla="*/ 1228256 h 1297115"/>
+            <a:gd name="connsiteX1" fmla="*/ 860816 w 3141147"/>
+            <a:gd name="connsiteY1" fmla="*/ 496736 h 1297115"/>
+            <a:gd name="connsiteX2" fmla="*/ 1279916 w 3141147"/>
+            <a:gd name="connsiteY2" fmla="*/ 130976 h 1297115"/>
+            <a:gd name="connsiteX3" fmla="*/ 2697236 w 3141147"/>
+            <a:gd name="connsiteY3" fmla="*/ 85256 h 1297115"/>
+            <a:gd name="connsiteX4" fmla="*/ 2796296 w 3141147"/>
+            <a:gd name="connsiteY4" fmla="*/ 1136816 h 1297115"/>
+            <a:gd name="connsiteX5" fmla="*/ 68336 w 3141147"/>
+            <a:gd name="connsiteY5" fmla="*/ 1228256 h 1297115"/>
+            <a:gd name="connsiteX0" fmla="*/ 73323 w 3146134"/>
+            <a:gd name="connsiteY0" fmla="*/ 1228256 h 1297115"/>
+            <a:gd name="connsiteX1" fmla="*/ 865803 w 3146134"/>
+            <a:gd name="connsiteY1" fmla="*/ 496736 h 1297115"/>
+            <a:gd name="connsiteX2" fmla="*/ 1284903 w 3146134"/>
+            <a:gd name="connsiteY2" fmla="*/ 130976 h 1297115"/>
+            <a:gd name="connsiteX3" fmla="*/ 2702223 w 3146134"/>
+            <a:gd name="connsiteY3" fmla="*/ 85256 h 1297115"/>
+            <a:gd name="connsiteX4" fmla="*/ 2801283 w 3146134"/>
+            <a:gd name="connsiteY4" fmla="*/ 1136816 h 1297115"/>
+            <a:gd name="connsiteX5" fmla="*/ 73323 w 3146134"/>
+            <a:gd name="connsiteY5" fmla="*/ 1228256 h 1297115"/>
+            <a:gd name="connsiteX0" fmla="*/ 183798 w 3256609"/>
+            <a:gd name="connsiteY0" fmla="*/ 1228256 h 1297115"/>
+            <a:gd name="connsiteX1" fmla="*/ 328577 w 3256609"/>
+            <a:gd name="connsiteY1" fmla="*/ 824395 h 1297115"/>
+            <a:gd name="connsiteX2" fmla="*/ 976278 w 3256609"/>
+            <a:gd name="connsiteY2" fmla="*/ 496736 h 1297115"/>
+            <a:gd name="connsiteX3" fmla="*/ 1395378 w 3256609"/>
+            <a:gd name="connsiteY3" fmla="*/ 130976 h 1297115"/>
+            <a:gd name="connsiteX4" fmla="*/ 2812698 w 3256609"/>
+            <a:gd name="connsiteY4" fmla="*/ 85256 h 1297115"/>
+            <a:gd name="connsiteX5" fmla="*/ 2911758 w 3256609"/>
+            <a:gd name="connsiteY5" fmla="*/ 1136816 h 1297115"/>
+            <a:gd name="connsiteX6" fmla="*/ 183798 w 3256609"/>
+            <a:gd name="connsiteY6" fmla="*/ 1228256 h 1297115"/>
+            <a:gd name="connsiteX0" fmla="*/ 1280515 w 4353326"/>
+            <a:gd name="connsiteY0" fmla="*/ 1228256 h 1268652"/>
+            <a:gd name="connsiteX1" fmla="*/ 15594 w 4353326"/>
+            <a:gd name="connsiteY1" fmla="*/ 908215 h 1268652"/>
+            <a:gd name="connsiteX2" fmla="*/ 2072995 w 4353326"/>
+            <a:gd name="connsiteY2" fmla="*/ 496736 h 1268652"/>
+            <a:gd name="connsiteX3" fmla="*/ 2492095 w 4353326"/>
+            <a:gd name="connsiteY3" fmla="*/ 130976 h 1268652"/>
+            <a:gd name="connsiteX4" fmla="*/ 3909415 w 4353326"/>
+            <a:gd name="connsiteY4" fmla="*/ 85256 h 1268652"/>
+            <a:gd name="connsiteX5" fmla="*/ 4008475 w 4353326"/>
+            <a:gd name="connsiteY5" fmla="*/ 1136816 h 1268652"/>
+            <a:gd name="connsiteX6" fmla="*/ 1280515 w 4353326"/>
+            <a:gd name="connsiteY6" fmla="*/ 1228256 h 1268652"/>
+            <a:gd name="connsiteX0" fmla="*/ 1280515 w 4353326"/>
+            <a:gd name="connsiteY0" fmla="*/ 1228256 h 1268652"/>
+            <a:gd name="connsiteX1" fmla="*/ 15594 w 4353326"/>
+            <a:gd name="connsiteY1" fmla="*/ 908215 h 1268652"/>
+            <a:gd name="connsiteX2" fmla="*/ 2072995 w 4353326"/>
+            <a:gd name="connsiteY2" fmla="*/ 496736 h 1268652"/>
+            <a:gd name="connsiteX3" fmla="*/ 2492095 w 4353326"/>
+            <a:gd name="connsiteY3" fmla="*/ 130976 h 1268652"/>
+            <a:gd name="connsiteX4" fmla="*/ 3909415 w 4353326"/>
+            <a:gd name="connsiteY4" fmla="*/ 85256 h 1268652"/>
+            <a:gd name="connsiteX5" fmla="*/ 4008475 w 4353326"/>
+            <a:gd name="connsiteY5" fmla="*/ 1136816 h 1268652"/>
+            <a:gd name="connsiteX6" fmla="*/ 1280515 w 4353326"/>
+            <a:gd name="connsiteY6" fmla="*/ 1228256 h 1268652"/>
+            <a:gd name="connsiteX0" fmla="*/ 1267220 w 4340031"/>
+            <a:gd name="connsiteY0" fmla="*/ 1228256 h 1268652"/>
+            <a:gd name="connsiteX1" fmla="*/ 2299 w 4340031"/>
+            <a:gd name="connsiteY1" fmla="*/ 908215 h 1268652"/>
+            <a:gd name="connsiteX2" fmla="*/ 2059700 w 4340031"/>
+            <a:gd name="connsiteY2" fmla="*/ 496736 h 1268652"/>
+            <a:gd name="connsiteX3" fmla="*/ 2478800 w 4340031"/>
+            <a:gd name="connsiteY3" fmla="*/ 130976 h 1268652"/>
+            <a:gd name="connsiteX4" fmla="*/ 3896120 w 4340031"/>
+            <a:gd name="connsiteY4" fmla="*/ 85256 h 1268652"/>
+            <a:gd name="connsiteX5" fmla="*/ 3995180 w 4340031"/>
+            <a:gd name="connsiteY5" fmla="*/ 1136816 h 1268652"/>
+            <a:gd name="connsiteX6" fmla="*/ 1267220 w 4340031"/>
+            <a:gd name="connsiteY6" fmla="*/ 1228256 h 1268652"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -3113,37 +3220,45 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX5" y="connsiteY5"/>
             </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="2132607" h="1273504">
+            <a:path w="4340031" h="1268652">
               <a:moveTo>
-                <a:pt x="279365" y="1203860"/>
+                <a:pt x="1267220" y="1228256"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="-29245" y="1122580"/>
-                <a:pt x="-5115" y="833020"/>
-                <a:pt x="5045" y="655220"/>
+                <a:pt x="601740" y="1190156"/>
+                <a:pt x="-241" y="1319695"/>
+                <a:pt x="2299" y="908215"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="15205" y="477420"/>
-                <a:pt x="48225" y="231040"/>
-                <a:pt x="340325" y="137060"/>
+                <a:pt x="-71361" y="618655"/>
+                <a:pt x="1646950" y="626276"/>
+                <a:pt x="2059700" y="496736"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="632425" y="43080"/>
-                <a:pt x="1144235" y="-92810"/>
-                <a:pt x="1757645" y="91340"/>
+                <a:pt x="2472450" y="367196"/>
+                <a:pt x="2172730" y="199556"/>
+                <a:pt x="2478800" y="130976"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="2371055" y="275490"/>
-                <a:pt x="2103085" y="957480"/>
-                <a:pt x="1856705" y="1142900"/>
+                <a:pt x="2784870" y="62396"/>
+                <a:pt x="3282710" y="-98894"/>
+                <a:pt x="3896120" y="85256"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="1610325" y="1328320"/>
-                <a:pt x="587975" y="1285140"/>
-                <a:pt x="279365" y="1203860"/>
+                <a:pt x="4509530" y="269406"/>
+                <a:pt x="4433330" y="946316"/>
+                <a:pt x="3995180" y="1136816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3557030" y="1327316"/>
+                <a:pt x="1932700" y="1266356"/>
+                <a:pt x="1267220" y="1228256"/>
               </a:cubicBezTo>
               <a:close/>
             </a:path>
@@ -3652,6 +3767,50 @@
         <a:xfrm>
           <a:off x="8298180" y="2255520"/>
           <a:ext cx="822960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conector reto 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1333500" y="2369820"/>
+          <a:ext cx="2133600" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3943,7 +4102,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I21" sqref="D10:I21"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4171,7 +4330,9 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
         <v>16</v>
